--- a/www.eia.gov/electricity/monthly/xls/table_1_11_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_11_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>Table 1.11.B. Utility Scale Facility Net Generation from Renewable Sources Excluding Hydroelectric</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1389,37 +1389,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>8730</v>
+        <v>9570</v>
       </c>
       <c r="C7" s="10">
-        <v>8388</v>
+        <v>9294</v>
       </c>
       <c r="D7" s="11">
-        <v>4.1000000000000002E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="10">
-        <v>731</v>
+        <v>805</v>
       </c>
       <c r="F7" s="10">
-        <v>732</v>
+        <v>807</v>
       </c>
       <c r="G7" s="10">
-        <v>6956</v>
+        <v>7609</v>
       </c>
       <c r="H7" s="10">
-        <v>6452</v>
+        <v>7180</v>
       </c>
       <c r="I7" s="10">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J7" s="10">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K7" s="10">
-        <v>907</v>
+        <v>1006</v>
       </c>
       <c r="L7" s="10">
-        <v>1065</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1427,10 +1427,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="C8" s="13">
-        <v>661</v>
+        <v>726</v>
       </c>
       <c r="D8" s="14">
         <v>0.127</v>
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>741</v>
+        <v>814</v>
       </c>
       <c r="H8" s="13">
-        <v>657</v>
+        <v>722</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1465,13 +1465,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="13">
-        <v>3605</v>
+        <v>3955</v>
       </c>
       <c r="C9" s="13">
-        <v>3624</v>
+        <v>4047</v>
       </c>
       <c r="D9" s="14">
-        <v>-5.0000000000000001E-3</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1480,22 +1480,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>2627</v>
+        <v>2871</v>
       </c>
       <c r="H9" s="13">
-        <v>2486</v>
+        <v>2813</v>
       </c>
       <c r="I9" s="13">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J9" s="13">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K9" s="13">
-        <v>904</v>
+        <v>1003</v>
       </c>
       <c r="L9" s="13">
-        <v>1063</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1503,37 +1503,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="13">
-        <v>1734</v>
+        <v>1891</v>
       </c>
       <c r="C10" s="13">
-        <v>1528</v>
+        <v>1683</v>
       </c>
       <c r="D10" s="14">
-        <v>0.13500000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="E10" s="13">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F10" s="13">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G10" s="13">
-        <v>1636</v>
+        <v>1784</v>
       </c>
       <c r="H10" s="13">
-        <v>1441</v>
+        <v>1585</v>
       </c>
       <c r="I10" s="13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J10" s="13">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1541,31 +1541,31 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>1749</v>
+        <v>1924</v>
       </c>
       <c r="C11" s="13">
-        <v>1690</v>
+        <v>1859</v>
       </c>
       <c r="D11" s="14">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E11" s="13">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F11" s="13">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="G11" s="13">
-        <v>1470</v>
+        <v>1613</v>
       </c>
       <c r="H11" s="13">
-        <v>1394</v>
+        <v>1537</v>
       </c>
       <c r="I11" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J11" s="13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K11" s="13">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="13">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C12" s="13">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="D12" s="14">
-        <v>4.5999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1594,16 +1594,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H12" s="13">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="I12" s="13">
+        <v>7</v>
+      </c>
+      <c r="J12" s="13">
         <v>6</v>
-      </c>
-      <c r="J12" s="13">
-        <v>5</v>
       </c>
       <c r="K12" s="13">
         <v>0</v>
@@ -1617,25 +1617,25 @@
         <v>23</v>
       </c>
       <c r="B13" s="13">
-        <v>692</v>
+        <v>755</v>
       </c>
       <c r="C13" s="13">
-        <v>688</v>
+        <v>764</v>
       </c>
       <c r="D13" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="F13" s="13">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="G13" s="13">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="H13" s="13">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>18</v>
@@ -1655,37 +1655,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>11330</v>
+        <v>12609</v>
       </c>
       <c r="C14" s="10">
-        <v>11124</v>
+        <v>12442</v>
       </c>
       <c r="D14" s="11">
-        <v>1.9E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E14" s="10">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F14" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G14" s="10">
-        <v>10063</v>
+        <v>11230</v>
       </c>
       <c r="H14" s="10">
-        <v>9860</v>
+        <v>11048</v>
       </c>
       <c r="I14" s="10">
-        <v>547</v>
+        <v>592</v>
       </c>
       <c r="J14" s="10">
-        <v>570</v>
+        <v>627</v>
       </c>
       <c r="K14" s="10">
-        <v>623</v>
+        <v>682</v>
       </c>
       <c r="L14" s="10">
-        <v>636</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1693,31 +1693,31 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>1540</v>
+        <v>1680</v>
       </c>
       <c r="C15" s="13">
-        <v>1360</v>
+        <v>1483</v>
       </c>
       <c r="D15" s="14">
-        <v>0.13200000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E15" s="13">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F15" s="13">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G15" s="13">
-        <v>1162</v>
+        <v>1271</v>
       </c>
       <c r="H15" s="13">
-        <v>1039</v>
+        <v>1136</v>
       </c>
       <c r="I15" s="13">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="J15" s="13">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>18</v>
@@ -1731,13 +1731,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>5084</v>
+        <v>5659</v>
       </c>
       <c r="C16" s="13">
-        <v>5095</v>
+        <v>5709</v>
       </c>
       <c r="D16" s="14">
-        <v>-2E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1746,22 +1746,22 @@
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>4736</v>
+        <v>5279</v>
       </c>
       <c r="H16" s="13">
-        <v>4743</v>
+        <v>5319</v>
       </c>
       <c r="I16" s="13">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="J16" s="13">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K16" s="13">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L16" s="13">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1769,13 +1769,13 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>4705</v>
+        <v>5269</v>
       </c>
       <c r="C17" s="13">
-        <v>4668</v>
+        <v>5250</v>
       </c>
       <c r="D17" s="14">
-        <v>8.0000000000000002E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1784,22 +1784,22 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>4164</v>
+        <v>4680</v>
       </c>
       <c r="H17" s="13">
-        <v>4078</v>
+        <v>4593</v>
       </c>
       <c r="I17" s="13">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J17" s="13">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K17" s="13">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="L17" s="13">
-        <v>457</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,37 +1807,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>23056</v>
+        <v>25857</v>
       </c>
       <c r="C18" s="10">
-        <v>22461</v>
+        <v>25752</v>
       </c>
       <c r="D18" s="11">
-        <v>2.7E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E18" s="10">
-        <v>2847</v>
+        <v>3214</v>
       </c>
       <c r="F18" s="10">
-        <v>2919</v>
+        <v>3329</v>
       </c>
       <c r="G18" s="10">
-        <v>18682</v>
+        <v>20970</v>
       </c>
       <c r="H18" s="10">
-        <v>17906</v>
+        <v>20624</v>
       </c>
       <c r="I18" s="10">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J18" s="10">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="K18" s="10">
-        <v>1342</v>
+        <v>1470</v>
       </c>
       <c r="L18" s="10">
-        <v>1406</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1845,31 +1845,31 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>8899</v>
+        <v>10020</v>
       </c>
       <c r="C19" s="13">
-        <v>8531</v>
+        <v>9957</v>
       </c>
       <c r="D19" s="14">
-        <v>4.2999999999999997E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E19" s="13">
+        <v>34</v>
+      </c>
+      <c r="F19" s="13">
         <v>31</v>
       </c>
-      <c r="F19" s="13">
-        <v>27</v>
-      </c>
       <c r="G19" s="13">
-        <v>8864</v>
+        <v>9981</v>
       </c>
       <c r="H19" s="13">
-        <v>8500</v>
+        <v>9921</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" s="13">
         <v>0</v>
@@ -1883,37 +1883,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>4495</v>
+        <v>5029</v>
       </c>
       <c r="C20" s="13">
-        <v>3889</v>
+        <v>4492</v>
       </c>
       <c r="D20" s="14">
-        <v>0.156</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E20" s="13">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F20" s="13">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="G20" s="13">
+        <v>4620</v>
+      </c>
+      <c r="H20" s="13">
         <v>4123</v>
       </c>
-      <c r="H20" s="13">
-        <v>3554</v>
-      </c>
       <c r="I20" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K20" s="13">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L20" s="13">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1921,37 +1921,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>5655</v>
+        <v>6348</v>
       </c>
       <c r="C21" s="13">
-        <v>5853</v>
+        <v>6588</v>
       </c>
       <c r="D21" s="14">
-        <v>-3.4000000000000002E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>1489</v>
+        <v>1693</v>
       </c>
       <c r="F21" s="13">
-        <v>1558</v>
+        <v>1778</v>
       </c>
       <c r="G21" s="13">
-        <v>3487</v>
+        <v>3906</v>
       </c>
       <c r="H21" s="13">
-        <v>3564</v>
+        <v>4006</v>
       </c>
       <c r="I21" s="13">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J21" s="13">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="K21" s="13">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="L21" s="13">
-        <v>563</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1959,37 +1959,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>1663</v>
+        <v>1852</v>
       </c>
       <c r="C22" s="13">
-        <v>1638</v>
+        <v>1849</v>
       </c>
       <c r="D22" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E22" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G22" s="13">
-        <v>1367</v>
+        <v>1528</v>
       </c>
       <c r="H22" s="13">
-        <v>1314</v>
+        <v>1491</v>
       </c>
       <c r="I22" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J22" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K22" s="13">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="L22" s="13">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1997,37 +1997,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>2344</v>
+        <v>2608</v>
       </c>
       <c r="C23" s="13">
-        <v>2550</v>
+        <v>2866</v>
       </c>
       <c r="D23" s="14">
-        <v>-8.1000000000000003E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="E23" s="13">
-        <v>1003</v>
+        <v>1130</v>
       </c>
       <c r="F23" s="13">
-        <v>1055</v>
+        <v>1213</v>
       </c>
       <c r="G23" s="13">
-        <v>841</v>
+        <v>935</v>
       </c>
       <c r="H23" s="13">
-        <v>974</v>
+        <v>1082</v>
       </c>
       <c r="I23" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J23" s="13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K23" s="13">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="L23" s="13">
-        <v>490</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2035,37 +2035,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>50183</v>
+        <v>56168</v>
       </c>
       <c r="C24" s="10">
-        <v>43091</v>
+        <v>48891</v>
       </c>
       <c r="D24" s="11">
-        <v>0.16500000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="E24" s="10">
-        <v>17169</v>
+        <v>19322</v>
       </c>
       <c r="F24" s="10">
-        <v>14054</v>
+        <v>16089</v>
       </c>
       <c r="G24" s="10">
-        <v>32363</v>
+        <v>36134</v>
       </c>
       <c r="H24" s="10">
-        <v>28400</v>
+        <v>32092</v>
       </c>
       <c r="I24" s="10">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="J24" s="10">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K24" s="10">
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="L24" s="10">
-        <v>521</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2073,37 +2073,37 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>15803</v>
+        <v>17868</v>
       </c>
       <c r="C25" s="13">
-        <v>14213</v>
+        <v>16279</v>
       </c>
       <c r="D25" s="14">
-        <v>0.112</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E25" s="13">
-        <v>9921</v>
+        <v>11265</v>
       </c>
       <c r="F25" s="13">
-        <v>8329</v>
+        <v>9606</v>
       </c>
       <c r="G25" s="13">
-        <v>5797</v>
+        <v>6511</v>
       </c>
       <c r="H25" s="13">
-        <v>5793</v>
+        <v>6573</v>
       </c>
       <c r="I25" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J25" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K25" s="13">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L25" s="13">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2111,25 +2111,25 @@
         <v>36</v>
       </c>
       <c r="B26" s="13">
-        <v>11732</v>
+        <v>12959</v>
       </c>
       <c r="C26" s="13">
-        <v>8654</v>
+        <v>9812</v>
       </c>
       <c r="D26" s="14">
-        <v>0.35599999999999998</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="E26" s="13">
-        <v>710</v>
+        <v>774</v>
       </c>
       <c r="F26" s="13">
-        <v>703</v>
+        <v>790</v>
       </c>
       <c r="G26" s="13">
-        <v>11013</v>
+        <v>12177</v>
       </c>
       <c r="H26" s="13">
-        <v>7951</v>
+        <v>9022</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
@@ -2149,37 +2149,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>9788</v>
+        <v>10952</v>
       </c>
       <c r="C27" s="13">
-        <v>9235</v>
+        <v>10514</v>
       </c>
       <c r="D27" s="14">
-        <v>0.06</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E27" s="13">
-        <v>2424</v>
+        <v>2691</v>
       </c>
       <c r="F27" s="13">
-        <v>1945</v>
+        <v>2253</v>
       </c>
       <c r="G27" s="13">
-        <v>6877</v>
+        <v>7722</v>
       </c>
       <c r="H27" s="13">
-        <v>6791</v>
+        <v>7700</v>
       </c>
       <c r="I27" s="13">
+        <v>50</v>
+      </c>
+      <c r="J27" s="13">
         <v>45</v>
       </c>
-      <c r="J27" s="13">
-        <v>40</v>
-      </c>
       <c r="K27" s="13">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="L27" s="13">
-        <v>460</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2187,34 +2187,34 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>1050</v>
+        <v>1168</v>
       </c>
       <c r="C28" s="13">
-        <v>916</v>
+        <v>1052</v>
       </c>
       <c r="D28" s="14">
-        <v>0.14699999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="E28" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F28" s="13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" s="13">
-        <v>965</v>
+        <v>1079</v>
       </c>
       <c r="H28" s="13">
-        <v>849</v>
+        <v>983</v>
       </c>
       <c r="I28" s="13">
         <v>45</v>
       </c>
       <c r="J28" s="13">
-        <v>27</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="K28" s="13">
+        <v>3</v>
       </c>
       <c r="L28" s="13">
         <v>2</v>
@@ -2225,31 +2225,31 @@
         <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>2993</v>
+        <v>3333</v>
       </c>
       <c r="C29" s="13">
-        <v>2604</v>
+        <v>2930</v>
       </c>
       <c r="D29" s="14">
-        <v>0.14899999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E29" s="13">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="F29" s="13">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="G29" s="13">
-        <v>2753</v>
+        <v>3066</v>
       </c>
       <c r="H29" s="13">
-        <v>2371</v>
+        <v>2668</v>
       </c>
       <c r="I29" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J29" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K29" s="13">
         <v>0</v>
@@ -2263,25 +2263,25 @@
         <v>40</v>
       </c>
       <c r="B30" s="13">
-        <v>6313</v>
+        <v>7092</v>
       </c>
       <c r="C30" s="13">
-        <v>5405</v>
+        <v>5989</v>
       </c>
       <c r="D30" s="14">
-        <v>0.16800000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="E30" s="13">
-        <v>3066</v>
+        <v>3421</v>
       </c>
       <c r="F30" s="13">
-        <v>2153</v>
+        <v>2396</v>
       </c>
       <c r="G30" s="13">
-        <v>3237</v>
+        <v>3661</v>
       </c>
       <c r="H30" s="13">
-        <v>3250</v>
+        <v>3590</v>
       </c>
       <c r="I30" s="13">
         <v>0</v>
@@ -2301,25 +2301,25 @@
         <v>41</v>
       </c>
       <c r="B31" s="13">
-        <v>2505</v>
+        <v>2797</v>
       </c>
       <c r="C31" s="13">
-        <v>2064</v>
+        <v>2315</v>
       </c>
       <c r="D31" s="14">
-        <v>0.214</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E31" s="13">
-        <v>784</v>
+        <v>878</v>
       </c>
       <c r="F31" s="13">
-        <v>668</v>
+        <v>758</v>
       </c>
       <c r="G31" s="13">
-        <v>1721</v>
+        <v>1918</v>
       </c>
       <c r="H31" s="13">
-        <v>1396</v>
+        <v>1557</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -2339,37 +2339,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>21382</v>
+        <v>23449</v>
       </c>
       <c r="C32" s="10">
-        <v>19003</v>
+        <v>20929</v>
       </c>
       <c r="D32" s="11">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="E32" s="10">
-        <v>1955</v>
+        <v>2076</v>
       </c>
       <c r="F32" s="10">
-        <v>1647</v>
+        <v>1792</v>
       </c>
       <c r="G32" s="10">
-        <v>10405</v>
+        <v>11433</v>
       </c>
       <c r="H32" s="10">
-        <v>8154</v>
+        <v>9027</v>
       </c>
       <c r="I32" s="10">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="J32" s="10">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="K32" s="10">
-        <v>8601</v>
+        <v>9480</v>
       </c>
       <c r="L32" s="10">
-        <v>8825</v>
+        <v>9690</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2377,37 +2377,37 @@
         <v>43</v>
       </c>
       <c r="B33" s="13">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C33" s="13">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D33" s="14">
-        <v>6.8000000000000005E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E33" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F33" s="13">
         <v>6</v>
       </c>
       <c r="G33" s="13">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H33" s="13">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I33" s="13">
         <v>6</v>
       </c>
       <c r="J33" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K33" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L33" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="13">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D34" s="14">
         <v>-1</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="13">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I34" s="13">
         <v>0</v>
@@ -2453,37 +2453,37 @@
         <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>3974</v>
+        <v>4377</v>
       </c>
       <c r="C35" s="13">
-        <v>4302</v>
+        <v>4713</v>
       </c>
       <c r="D35" s="14">
-        <v>-7.5999999999999998E-2</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="E35" s="13">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F35" s="13">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="G35" s="13">
-        <v>2060</v>
+        <v>2266</v>
       </c>
       <c r="H35" s="13">
-        <v>2270</v>
+        <v>2491</v>
       </c>
       <c r="I35" s="13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J35" s="13">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K35" s="13">
-        <v>1646</v>
+        <v>1821</v>
       </c>
       <c r="L35" s="13">
-        <v>1745</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2491,37 +2491,37 @@
         <v>46</v>
       </c>
       <c r="B36" s="13">
-        <v>4512</v>
+        <v>5011</v>
       </c>
       <c r="C36" s="13">
-        <v>3999</v>
+        <v>4407</v>
       </c>
       <c r="D36" s="14">
-        <v>0.128</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E36" s="13">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F36" s="13">
         <v>1</v>
       </c>
       <c r="G36" s="13">
-        <v>1192</v>
+        <v>1335</v>
       </c>
       <c r="H36" s="13">
-        <v>647</v>
+        <v>719</v>
       </c>
       <c r="I36" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J36" s="13">
         <v>10</v>
       </c>
       <c r="K36" s="13">
-        <v>3245</v>
+        <v>3586</v>
       </c>
       <c r="L36" s="13">
-        <v>3342</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2529,37 +2529,37 @@
         <v>47</v>
       </c>
       <c r="B37" s="13">
-        <v>1004</v>
+        <v>1119</v>
       </c>
       <c r="C37" s="13">
-        <v>860</v>
+        <v>964</v>
       </c>
       <c r="D37" s="14">
-        <v>0.16700000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="E37" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37" s="13">
         <v>8</v>
       </c>
       <c r="G37" s="13">
-        <v>878</v>
+        <v>979</v>
       </c>
       <c r="H37" s="13">
-        <v>749</v>
+        <v>843</v>
       </c>
       <c r="I37" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J37" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K37" s="13">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="L37" s="13">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2567,37 +2567,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="13">
-        <v>5229</v>
+        <v>5662</v>
       </c>
       <c r="C38" s="13">
-        <v>3208</v>
+        <v>3549</v>
       </c>
       <c r="D38" s="14">
-        <v>0.63</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="E38" s="13">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F38" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" s="13">
-        <v>3839</v>
+        <v>4139</v>
       </c>
       <c r="H38" s="13">
-        <v>1986</v>
+        <v>2196</v>
       </c>
       <c r="I38" s="13">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="J38" s="13">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="K38" s="13">
-        <v>1000</v>
+        <v>1110</v>
       </c>
       <c r="L38" s="13">
-        <v>1099</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2605,25 +2605,25 @@
         <v>49</v>
       </c>
       <c r="B39" s="13">
-        <v>2002</v>
+        <v>2186</v>
       </c>
       <c r="C39" s="13">
-        <v>1931</v>
+        <v>2101</v>
       </c>
       <c r="D39" s="14">
-        <v>3.6999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E39" s="13">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="F39" s="13">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="G39" s="13">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="H39" s="13">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="I39" s="13">
         <v>0</v>
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="13">
-        <v>1316</v>
+        <v>1431</v>
       </c>
       <c r="L39" s="13">
-        <v>1223</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2643,37 +2643,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="13">
-        <v>3467</v>
+        <v>3753</v>
       </c>
       <c r="C40" s="13">
-        <v>3476</v>
+        <v>3807</v>
       </c>
       <c r="D40" s="14">
-        <v>-3.0000000000000001E-3</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E40" s="13">
-        <v>1082</v>
+        <v>1120</v>
       </c>
       <c r="F40" s="13">
-        <v>1016</v>
+        <v>1102</v>
       </c>
       <c r="G40" s="13">
-        <v>917</v>
+        <v>1021</v>
       </c>
       <c r="H40" s="13">
-        <v>953</v>
+        <v>1039</v>
       </c>
       <c r="I40" s="13">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="J40" s="13">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="K40" s="13">
-        <v>1292</v>
+        <v>1418</v>
       </c>
       <c r="L40" s="13">
-        <v>1318</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2681,13 +2681,13 @@
         <v>51</v>
       </c>
       <c r="B41" s="13">
-        <v>1079</v>
+        <v>1215</v>
       </c>
       <c r="C41" s="13">
-        <v>1097</v>
+        <v>1244</v>
       </c>
       <c r="D41" s="14">
-        <v>-1.7000000000000001E-2</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="13">
-        <v>1079</v>
+        <v>1215</v>
       </c>
       <c r="H41" s="13">
-        <v>1097</v>
+        <v>1244</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2719,37 +2719,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="10">
-        <v>5285</v>
+        <v>5832</v>
       </c>
       <c r="C42" s="10">
-        <v>5275</v>
+        <v>5821</v>
       </c>
       <c r="D42" s="11">
         <v>2E-3</v>
       </c>
       <c r="E42" s="10">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F42" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G42" s="10">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="H42" s="10">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" s="10">
-        <v>4777</v>
+        <v>5264</v>
       </c>
       <c r="L42" s="10">
-        <v>4818</v>
+        <v>5309</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2757,13 +2757,13 @@
         <v>53</v>
       </c>
       <c r="B43" s="13">
-        <v>2716</v>
+        <v>3007</v>
       </c>
       <c r="C43" s="13">
-        <v>2727</v>
+        <v>2999</v>
       </c>
       <c r="D43" s="14">
-        <v>-4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E43" s="13">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="13">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="H43" s="13">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="I43" s="13">
         <v>0</v>
@@ -2784,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>2478</v>
+        <v>2734</v>
       </c>
       <c r="L43" s="13">
-        <v>2518</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2795,25 +2795,25 @@
         <v>54</v>
       </c>
       <c r="B44" s="13">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="C44" s="13">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="D44" s="14">
-        <v>6.7000000000000004E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F44" s="13">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G44" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H44" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I44" s="13">
         <v>0</v>
@@ -2822,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="13">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="L44" s="13">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2833,13 +2833,13 @@
         <v>55</v>
       </c>
       <c r="B45" s="13">
-        <v>1248</v>
+        <v>1370</v>
       </c>
       <c r="C45" s="13">
-        <v>1256</v>
+        <v>1389</v>
       </c>
       <c r="D45" s="14">
-        <v>-6.0000000000000001E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E45" s="13">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0.05</v>
       </c>
       <c r="G45" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" s="13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I45" s="13">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="13">
-        <v>1237</v>
+        <v>1358</v>
       </c>
       <c r="L45" s="13">
-        <v>1246</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2871,13 +2871,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>936</v>
+        <v>1029</v>
       </c>
       <c r="C46" s="13">
-        <v>932</v>
+        <v>1026</v>
       </c>
       <c r="D46" s="14">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>0</v>
       </c>
       <c r="G46" s="13">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="H46" s="13">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J46" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46" s="13">
-        <v>765</v>
+        <v>843</v>
       </c>
       <c r="L46" s="13">
-        <v>769</v>
+        <v>845</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2909,37 +2909,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="10">
-        <v>69472</v>
+        <v>76281</v>
       </c>
       <c r="C47" s="10">
-        <v>51363</v>
+        <v>58184</v>
       </c>
       <c r="D47" s="11">
-        <v>0.35299999999999998</v>
+        <v>0.311</v>
       </c>
       <c r="E47" s="10">
-        <v>1411</v>
+        <v>1564</v>
       </c>
       <c r="F47" s="10">
-        <v>1508</v>
+        <v>1672</v>
       </c>
       <c r="G47" s="10">
-        <v>63760</v>
+        <v>69979</v>
       </c>
       <c r="H47" s="10">
-        <v>45804</v>
+        <v>52039</v>
       </c>
       <c r="I47" s="10">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J47" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K47" s="10">
-        <v>4231</v>
+        <v>4661</v>
       </c>
       <c r="L47" s="10">
-        <v>3996</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2947,13 +2947,13 @@
         <v>58</v>
       </c>
       <c r="B48" s="13">
-        <v>1175</v>
+        <v>1298</v>
       </c>
       <c r="C48" s="13">
-        <v>1198</v>
+        <v>1325</v>
       </c>
       <c r="D48" s="14">
-        <v>-1.9E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E48" s="13">
         <v>0</v>
@@ -2962,22 +2962,22 @@
         <v>0</v>
       </c>
       <c r="G48" s="13">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H48" s="13">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I48" s="13">
         <v>3</v>
       </c>
       <c r="J48" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K48" s="13">
-        <v>1062</v>
+        <v>1176</v>
       </c>
       <c r="L48" s="13">
-        <v>1121</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2985,13 +2985,13 @@
         <v>59</v>
       </c>
       <c r="B49" s="13">
-        <v>2230</v>
+        <v>2460</v>
       </c>
       <c r="C49" s="13">
-        <v>2239</v>
+        <v>2464</v>
       </c>
       <c r="D49" s="14">
-        <v>-4.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="13">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H49" s="13">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="13">
-        <v>2151</v>
+        <v>2374</v>
       </c>
       <c r="L49" s="13">
-        <v>2164</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3023,25 +3023,25 @@
         <v>60</v>
       </c>
       <c r="B50" s="13">
-        <v>16323</v>
+        <v>18048</v>
       </c>
       <c r="C50" s="13">
-        <v>11279</v>
+        <v>12896</v>
       </c>
       <c r="D50" s="14">
-        <v>0.44700000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="E50" s="13">
-        <v>1168</v>
+        <v>1306</v>
       </c>
       <c r="F50" s="13">
-        <v>1151</v>
+        <v>1294</v>
       </c>
       <c r="G50" s="13">
-        <v>14906</v>
+        <v>16468</v>
       </c>
       <c r="H50" s="13">
-        <v>9862</v>
+        <v>11308</v>
       </c>
       <c r="I50" s="13">
         <v>0</v>
@@ -3050,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="13">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L50" s="13">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3061,37 +3061,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="13">
-        <v>49744</v>
+        <v>54474</v>
       </c>
       <c r="C51" s="13">
-        <v>36648</v>
+        <v>41499</v>
       </c>
       <c r="D51" s="14">
-        <v>0.35699999999999998</v>
+        <v>0.313</v>
       </c>
       <c r="E51" s="13">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F51" s="13">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="G51" s="13">
-        <v>48665</v>
+        <v>53306</v>
       </c>
       <c r="H51" s="13">
-        <v>35793</v>
+        <v>40569</v>
       </c>
       <c r="I51" s="13">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J51" s="13">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K51" s="13">
-        <v>768</v>
+        <v>837</v>
       </c>
       <c r="L51" s="13">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3099,37 +3099,37 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>30884</v>
+        <v>34172</v>
       </c>
       <c r="C52" s="10">
-        <v>23623</v>
+        <v>26405</v>
       </c>
       <c r="D52" s="11">
-        <v>0.307</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="E52" s="10">
-        <v>2877</v>
+        <v>3166</v>
       </c>
       <c r="F52" s="10">
-        <v>2454</v>
+        <v>2774</v>
       </c>
       <c r="G52" s="10">
-        <v>27556</v>
+        <v>30513</v>
       </c>
       <c r="H52" s="10">
-        <v>20743</v>
+        <v>23162</v>
       </c>
       <c r="I52" s="10">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="J52" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K52" s="10">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="L52" s="10">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3137,31 +3137,31 @@
         <v>63</v>
       </c>
       <c r="B53" s="13">
-        <v>3915</v>
+        <v>4222</v>
       </c>
       <c r="C53" s="13">
-        <v>3534</v>
+        <v>3856</v>
       </c>
       <c r="D53" s="14">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E53" s="13">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="F53" s="13">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="G53" s="13">
-        <v>3435</v>
+        <v>3707</v>
       </c>
       <c r="H53" s="13">
-        <v>3054</v>
+        <v>3336</v>
       </c>
       <c r="I53" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J53" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K53" s="13">
         <v>0</v>
@@ -3175,31 +3175,31 @@
         <v>64</v>
       </c>
       <c r="B54" s="13">
-        <v>8153</v>
+        <v>9138</v>
       </c>
       <c r="C54" s="13">
-        <v>6223</v>
+        <v>6904</v>
       </c>
       <c r="D54" s="14">
-        <v>0.31</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E54" s="13">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F54" s="13">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G54" s="13">
-        <v>8042</v>
+        <v>9002</v>
       </c>
       <c r="H54" s="13">
-        <v>6097</v>
+        <v>6763</v>
       </c>
       <c r="I54" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J54" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>18</v>
@@ -3213,37 +3213,37 @@
         <v>65</v>
       </c>
       <c r="B55" s="13">
-        <v>2522</v>
+        <v>2800</v>
       </c>
       <c r="C55" s="13">
-        <v>2325</v>
+        <v>2609</v>
       </c>
       <c r="D55" s="14">
-        <v>8.5000000000000006E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E55" s="13">
+        <v>12</v>
+      </c>
+      <c r="F55" s="13">
         <v>11</v>
       </c>
-      <c r="F55" s="13">
-        <v>10</v>
-      </c>
       <c r="G55" s="13">
-        <v>2206</v>
+        <v>2452</v>
       </c>
       <c r="H55" s="13">
-        <v>1996</v>
+        <v>2245</v>
       </c>
       <c r="I55" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J55" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K55" s="13">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="L55" s="13">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3251,25 +3251,25 @@
         <v>66</v>
       </c>
       <c r="B56" s="13">
-        <v>1703</v>
+        <v>1908</v>
       </c>
       <c r="C56" s="13">
-        <v>1566</v>
+        <v>1777</v>
       </c>
       <c r="D56" s="14">
-        <v>8.6999999999999994E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E56" s="13">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F56" s="13">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G56" s="13">
-        <v>1502</v>
+        <v>1685</v>
       </c>
       <c r="H56" s="13">
-        <v>1375</v>
+        <v>1563</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="K56" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L56" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3289,31 +3289,31 @@
         <v>67</v>
       </c>
       <c r="B57" s="13">
-        <v>5657</v>
+        <v>6189</v>
       </c>
       <c r="C57" s="13">
-        <v>4167</v>
+        <v>4641</v>
       </c>
       <c r="D57" s="14">
-        <v>0.35799999999999998</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="E57" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="13">
-        <v>5554</v>
+        <v>6079</v>
       </c>
       <c r="H57" s="13">
-        <v>4127</v>
+        <v>4596</v>
       </c>
       <c r="I57" s="13">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J57" s="13">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K57" s="13" t="s">
         <v>18</v>
@@ -3327,25 +3327,25 @@
         <v>68</v>
       </c>
       <c r="B58" s="13">
-        <v>3650</v>
+        <v>4024</v>
       </c>
       <c r="C58" s="13">
-        <v>2047</v>
+        <v>2315</v>
       </c>
       <c r="D58" s="14">
-        <v>0.78300000000000003</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="E58" s="13">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="F58" s="13">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G58" s="13">
-        <v>3425</v>
+        <v>3783</v>
       </c>
       <c r="H58" s="13">
-        <v>1911</v>
+        <v>2168</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>18</v>
@@ -3365,31 +3365,31 @@
         <v>69</v>
       </c>
       <c r="B59" s="13">
-        <v>1847</v>
+        <v>2075</v>
       </c>
       <c r="C59" s="13">
-        <v>950</v>
+        <v>1047</v>
       </c>
       <c r="D59" s="14">
-        <v>0.94499999999999995</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="E59" s="13">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F59" s="13">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G59" s="13">
-        <v>1625</v>
+        <v>1828</v>
       </c>
       <c r="H59" s="13">
-        <v>721</v>
+        <v>797</v>
       </c>
       <c r="I59" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J59" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K59" s="13">
         <v>0</v>
@@ -3403,25 +3403,25 @@
         <v>70</v>
       </c>
       <c r="B60" s="13">
-        <v>3436</v>
+        <v>3817</v>
       </c>
       <c r="C60" s="13">
-        <v>2811</v>
+        <v>3256</v>
       </c>
       <c r="D60" s="14">
-        <v>0.222</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="E60" s="13">
-        <v>1670</v>
+        <v>1840</v>
       </c>
       <c r="F60" s="13">
-        <v>1350</v>
+        <v>1563</v>
       </c>
       <c r="G60" s="13">
-        <v>1766</v>
+        <v>1977</v>
       </c>
       <c r="H60" s="13">
-        <v>1462</v>
+        <v>1693</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3441,37 +3441,37 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>59957</v>
+        <v>64718</v>
       </c>
       <c r="C61" s="10">
-        <v>53004</v>
+        <v>57537</v>
       </c>
       <c r="D61" s="11">
-        <v>0.13100000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="E61" s="10">
-        <v>7172</v>
+        <v>7757</v>
       </c>
       <c r="F61" s="10">
-        <v>6444</v>
+        <v>7039</v>
       </c>
       <c r="G61" s="10">
-        <v>49932</v>
+        <v>53824</v>
       </c>
       <c r="H61" s="10">
-        <v>43531</v>
+        <v>47180</v>
       </c>
       <c r="I61" s="10">
-        <v>848</v>
+        <v>924</v>
       </c>
       <c r="J61" s="10">
-        <v>907</v>
+        <v>988</v>
       </c>
       <c r="K61" s="10">
-        <v>2006</v>
+        <v>2213</v>
       </c>
       <c r="L61" s="10">
-        <v>2122</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3479,37 +3479,37 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>44325</v>
+        <v>47753</v>
       </c>
       <c r="C62" s="13">
-        <v>38964</v>
+        <v>42072</v>
       </c>
       <c r="D62" s="14">
-        <v>0.13800000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="E62" s="13">
-        <v>1948</v>
+        <v>2099</v>
       </c>
       <c r="F62" s="13">
-        <v>1899</v>
+        <v>2037</v>
       </c>
       <c r="G62" s="13">
-        <v>41107</v>
+        <v>44265</v>
       </c>
       <c r="H62" s="13">
-        <v>35748</v>
+        <v>38605</v>
       </c>
       <c r="I62" s="13">
-        <v>820</v>
+        <v>893</v>
       </c>
       <c r="J62" s="13">
-        <v>872</v>
+        <v>949</v>
       </c>
       <c r="K62" s="13">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="L62" s="13">
-        <v>445</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3517,37 +3517,37 @@
         <v>73</v>
       </c>
       <c r="B63" s="13">
-        <v>7204</v>
+        <v>7761</v>
       </c>
       <c r="C63" s="13">
-        <v>6621</v>
+        <v>7266</v>
       </c>
       <c r="D63" s="14">
-        <v>8.7999999999999995E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E63" s="13">
-        <v>1227</v>
+        <v>1278</v>
       </c>
       <c r="F63" s="13">
-        <v>1130</v>
+        <v>1218</v>
       </c>
       <c r="G63" s="13">
-        <v>5583</v>
+        <v>6045</v>
       </c>
       <c r="H63" s="13">
-        <v>4950</v>
+        <v>5452</v>
       </c>
       <c r="I63" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J63" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K63" s="13">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="L63" s="13">
-        <v>521</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3555,37 +3555,37 @@
         <v>74</v>
       </c>
       <c r="B64" s="13">
-        <v>8428</v>
+        <v>9204</v>
       </c>
       <c r="C64" s="13">
-        <v>7419</v>
+        <v>8198</v>
       </c>
       <c r="D64" s="14">
-        <v>0.13600000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="E64" s="13">
-        <v>3996</v>
+        <v>4380</v>
       </c>
       <c r="F64" s="13">
-        <v>3416</v>
+        <v>3784</v>
       </c>
       <c r="G64" s="13">
-        <v>3242</v>
+        <v>3514</v>
       </c>
       <c r="H64" s="13">
-        <v>2834</v>
+        <v>3123</v>
       </c>
       <c r="I64" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J64" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K64" s="13">
-        <v>1176</v>
+        <v>1295</v>
       </c>
       <c r="L64" s="13">
-        <v>1156</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3593,37 +3593,37 @@
         <v>75</v>
       </c>
       <c r="B65" s="10">
-        <v>1269</v>
+        <v>1410</v>
       </c>
       <c r="C65" s="10">
-        <v>1162</v>
+        <v>1304</v>
       </c>
       <c r="D65" s="11">
-        <v>9.0999999999999998E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E65" s="10">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F65" s="10">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G65" s="10">
-        <v>824</v>
+        <v>922</v>
       </c>
       <c r="H65" s="10">
-        <v>740</v>
+        <v>837</v>
       </c>
       <c r="I65" s="10">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J65" s="10">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K65" s="10">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L65" s="10">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3631,31 +3631,31 @@
         <v>76</v>
       </c>
       <c r="B66" s="13">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C66" s="13">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D66" s="14">
-        <v>1.7999999999999999E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E66" s="13">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F66" s="13">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G66" s="13">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H66" s="13">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I66" s="13">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J66" s="13">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K66" s="13">
         <v>5</v>
@@ -3669,37 +3669,37 @@
         <v>77</v>
       </c>
       <c r="B67" s="13">
-        <v>1094</v>
+        <v>1216</v>
       </c>
       <c r="C67" s="13">
-        <v>991</v>
+        <v>1109</v>
       </c>
       <c r="D67" s="14">
-        <v>0.104</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E67" s="13">
+        <v>83</v>
+      </c>
+      <c r="F67" s="13">
+        <v>73</v>
+      </c>
+      <c r="G67" s="13">
+        <v>872</v>
+      </c>
+      <c r="H67" s="13">
+        <v>788</v>
+      </c>
+      <c r="I67" s="13">
+        <v>188</v>
+      </c>
+      <c r="J67" s="13">
+        <v>174</v>
+      </c>
+      <c r="K67" s="13">
+        <v>74</v>
+      </c>
+      <c r="L67" s="13">
         <v>75</v>
-      </c>
-      <c r="F67" s="13">
-        <v>68</v>
-      </c>
-      <c r="G67" s="13">
-        <v>779</v>
-      </c>
-      <c r="H67" s="13">
-        <v>697</v>
-      </c>
-      <c r="I67" s="13">
-        <v>171</v>
-      </c>
-      <c r="J67" s="13">
-        <v>159</v>
-      </c>
-      <c r="K67" s="13">
-        <v>69</v>
-      </c>
-      <c r="L67" s="13">
-        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3707,37 +3707,37 @@
         <v>78</v>
       </c>
       <c r="B68" s="10">
-        <v>281548</v>
+        <v>310064</v>
       </c>
       <c r="C68" s="10">
-        <v>238494</v>
+        <v>266559</v>
       </c>
       <c r="D68" s="11">
-        <v>0.18099999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="E68" s="10">
-        <v>34501</v>
+        <v>38277</v>
       </c>
       <c r="F68" s="10">
-        <v>30035</v>
+        <v>33811</v>
       </c>
       <c r="G68" s="10">
-        <v>220962</v>
+        <v>243087</v>
       </c>
       <c r="H68" s="10">
-        <v>181974</v>
+        <v>203619</v>
       </c>
       <c r="I68" s="10">
-        <v>2686</v>
+        <v>2921</v>
       </c>
       <c r="J68" s="10">
-        <v>2691</v>
+        <v>2954</v>
       </c>
       <c r="K68" s="10">
-        <v>23398</v>
+        <v>25779</v>
       </c>
       <c r="L68" s="10">
-        <v>23794</v>
+        <v>26175</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
